--- a/StructureDefinition-related-tl.xlsx
+++ b/StructureDefinition-related-tl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="70">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -175,6 +178,9 @@
   <si>
     <t xml:space="preserve">Extension
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -560,10 +566,10 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -623,10 +629,10 @@
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
@@ -634,7 +640,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -645,7 +651,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>37</v>
@@ -657,13 +663,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -714,13 +720,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -729,12 +735,12 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -757,13 +763,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -802,19 +808,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -826,7 +832,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -834,7 +840,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -842,10 +848,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -857,16 +863,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -874,7 +880,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -916,13 +922,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -931,12 +937,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -947,7 +953,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -959,13 +965,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1016,22 +1022,22 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-related-tl.xlsx
+++ b/StructureDefinition-related-tl.xlsx
@@ -212,7 +212,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>N/A</t>

--- a/StructureDefinition-related-tl.xlsx
+++ b/StructureDefinition-related-tl.xlsx
@@ -212,7 +212,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>N/A</t>
